--- a/Code/Results/Cases/Case_7_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718552</v>
+        <v>26.24678805718539</v>
       </c>
       <c r="C2">
-        <v>19.79684940052529</v>
+        <v>19.79684940052504</v>
       </c>
       <c r="D2">
-        <v>9.442240316331045</v>
+        <v>9.442240316330917</v>
       </c>
       <c r="E2">
-        <v>30.67466357065957</v>
+        <v>30.67466357065958</v>
       </c>
       <c r="F2">
-        <v>63.54804827132386</v>
+        <v>63.54804827132331</v>
       </c>
       <c r="G2">
-        <v>2.01043986827302</v>
+        <v>2.0104398682729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.2195804342074</v>
+        <v>24.21958043420731</v>
       </c>
       <c r="C3">
-        <v>18.26974872213651</v>
+        <v>18.26974872213664</v>
       </c>
       <c r="D3">
-        <v>8.914116238228251</v>
+        <v>8.91411623822815</v>
       </c>
       <c r="E3">
-        <v>28.22440394926879</v>
+        <v>28.22440394926874</v>
       </c>
       <c r="F3">
-        <v>59.22243557171291</v>
+        <v>59.22243557171277</v>
       </c>
       <c r="G3">
-        <v>2.02939534136715</v>
+        <v>2.029395341367025</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93078980953413</v>
+        <v>22.93078980953399</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>17.30170589585205</v>
       </c>
       <c r="D4">
-        <v>8.588640760383983</v>
+        <v>8.588640760384006</v>
       </c>
       <c r="E4">
-        <v>26.679415849612</v>
+        <v>26.67941584961204</v>
       </c>
       <c r="F4">
-        <v>56.51277687824813</v>
+        <v>56.51277687824836</v>
       </c>
       <c r="G4">
-        <v>2.041032923589058</v>
+        <v>2.041032923588919</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482672</v>
+        <v>22.39372297482668</v>
       </c>
       <c r="C5">
-        <v>16.89888094117251</v>
+        <v>16.89888094117238</v>
       </c>
       <c r="D5">
-        <v>8.455562333510052</v>
+        <v>8.45556233350997</v>
       </c>
       <c r="E5">
-        <v>26.03828905836545</v>
+        <v>26.0382890583654</v>
       </c>
       <c r="F5">
         <v>55.39410197988818</v>
       </c>
       <c r="G5">
-        <v>2.045788770045568</v>
+        <v>2.0457887700457</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782457</v>
+        <v>22.30380541782447</v>
       </c>
       <c r="C6">
-        <v>16.83147007907148</v>
+        <v>16.8314700790715</v>
       </c>
       <c r="D6">
-        <v>8.433434851819758</v>
+        <v>8.433434851819753</v>
       </c>
       <c r="E6">
-        <v>25.93109875840172</v>
+        <v>25.93109875840161</v>
       </c>
       <c r="F6">
-        <v>55.20745322129695</v>
+        <v>55.20745322129681</v>
       </c>
       <c r="G6">
-        <v>2.046579647295387</v>
+        <v>2.046579647295397</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425722</v>
+        <v>22.92359577425729</v>
       </c>
       <c r="C7">
-        <v>17.29630786899277</v>
+        <v>17.2963078689928</v>
       </c>
       <c r="D7">
-        <v>8.586847963810614</v>
+        <v>8.586847963810564</v>
       </c>
       <c r="E7">
-        <v>26.67081769861642</v>
+        <v>26.67081769861648</v>
       </c>
       <c r="F7">
-        <v>56.49774957047104</v>
+        <v>56.49774957047116</v>
       </c>
       <c r="G7">
-        <v>2.041096991607547</v>
+        <v>2.041096991607814</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326116</v>
+        <v>25.5564379132614</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>19.27615912934614</v>
       </c>
       <c r="D8">
-        <v>9.260289089134433</v>
+        <v>9.260289089134476</v>
       </c>
       <c r="E8">
-        <v>29.83734108505741</v>
+        <v>29.83734108505753</v>
       </c>
       <c r="F8">
-        <v>62.06700749866994</v>
+        <v>62.06700749867041</v>
       </c>
       <c r="G8">
-        <v>2.016984953209744</v>
+        <v>2.016984953209485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656154</v>
+        <v>30.4137096865615</v>
       </c>
       <c r="C9">
-        <v>22.95616959896672</v>
+        <v>22.95616959896658</v>
       </c>
       <c r="D9">
-        <v>10.58149212437356</v>
+        <v>10.58149212437352</v>
       </c>
       <c r="E9">
-        <v>35.80129715655013</v>
+        <v>35.80129715655014</v>
       </c>
       <c r="F9">
-        <v>72.63218803581502</v>
+        <v>72.63218803581482</v>
       </c>
       <c r="G9">
-        <v>1.968923078333865</v>
+        <v>1.968923078333999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283833</v>
+        <v>33.87605203283827</v>
       </c>
       <c r="C10">
-        <v>25.60710150872042</v>
+        <v>25.60710150872044</v>
       </c>
       <c r="D10">
         <v>11.5744224058135</v>
       </c>
       <c r="E10">
-        <v>40.17484901729082</v>
+        <v>40.1748490172908</v>
       </c>
       <c r="F10">
-        <v>80.54051721636871</v>
+        <v>80.54051721636861</v>
       </c>
       <c r="G10">
-        <v>1.931726294618737</v>
+        <v>1.931726294619009</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916188</v>
+        <v>35.45422905916211</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>26.8248421478018</v>
       </c>
       <c r="D11">
-        <v>12.03904925477304</v>
+        <v>12.03904925477316</v>
       </c>
       <c r="E11">
-        <v>42.21059482593152</v>
+        <v>42.21059482593157</v>
       </c>
       <c r="F11">
-        <v>84.18346965236219</v>
+        <v>84.1834696523631</v>
       </c>
       <c r="G11">
-        <v>1.913929765371221</v>
+        <v>1.913929765371355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343358</v>
+        <v>36.05549049343351</v>
       </c>
       <c r="C12">
-        <v>27.29052468993861</v>
+        <v>27.29052468993842</v>
       </c>
       <c r="D12">
-        <v>12.21789564228072</v>
+        <v>12.21789564228066</v>
       </c>
       <c r="E12">
-        <v>42.99415990142964</v>
+        <v>42.9941599014295</v>
       </c>
       <c r="F12">
-        <v>85.57443696644053</v>
+        <v>85.57443696643968</v>
       </c>
       <c r="G12">
-        <v>1.907007552749306</v>
+        <v>1.907007552749055</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411576</v>
+        <v>35.92577224411559</v>
       </c>
       <c r="C13">
-        <v>27.18997185068523</v>
+        <v>27.18997185068516</v>
       </c>
       <c r="D13">
-        <v>12.17922750502239</v>
+        <v>12.17922750502244</v>
       </c>
       <c r="E13">
-        <v>42.82471849117044</v>
+        <v>42.82471849117048</v>
       </c>
       <c r="F13">
         <v>85.27421405460503</v>
       </c>
       <c r="G13">
-        <v>1.908507665485184</v>
+        <v>1.908507665484936</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.50359968010169</v>
+        <v>35.50359968010177</v>
       </c>
       <c r="C14">
-        <v>26.86304268634447</v>
+        <v>26.8630426863445</v>
       </c>
       <c r="D14">
         <v>12.05369738572318</v>
       </c>
       <c r="E14">
-        <v>42.27476186777437</v>
+        <v>42.27476186777427</v>
       </c>
       <c r="F14">
-        <v>84.29762506640695</v>
+        <v>84.29762506640677</v>
       </c>
       <c r="G14">
-        <v>1.913364344850146</v>
+        <v>1.913364344850266</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407782</v>
+        <v>35.24559565407762</v>
       </c>
       <c r="C15">
-        <v>26.66348472232207</v>
+        <v>26.66348472232203</v>
       </c>
       <c r="D15">
-        <v>11.97722265277079</v>
+        <v>11.97722265277063</v>
       </c>
       <c r="E15">
-        <v>41.93976813747321</v>
+        <v>41.93976813747307</v>
       </c>
       <c r="F15">
-        <v>83.70118603006374</v>
+        <v>83.70118603006286</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>1.916313299921048</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453301</v>
+        <v>33.77322494453319</v>
       </c>
       <c r="C16">
-        <v>25.52797788720414</v>
+        <v>25.52797788720417</v>
       </c>
       <c r="D16">
-        <v>11.54439831699559</v>
+        <v>11.54439831699562</v>
       </c>
       <c r="E16">
-        <v>40.04320168908148</v>
+        <v>40.04320168908152</v>
       </c>
       <c r="F16">
-        <v>80.30360017115534</v>
+        <v>80.30360017115569</v>
       </c>
       <c r="G16">
-        <v>1.932867294210585</v>
+        <v>1.932867294210602</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570703</v>
+        <v>32.87271381570705</v>
       </c>
       <c r="C17">
-        <v>24.8361350709005</v>
+        <v>24.83613507090027</v>
       </c>
       <c r="D17">
-        <v>11.28281053043262</v>
+        <v>11.28281053043266</v>
       </c>
       <c r="E17">
-        <v>38.89516505701491</v>
+        <v>38.89516505701497</v>
       </c>
       <c r="F17">
-        <v>78.23133573472913</v>
+        <v>78.23133573472921</v>
       </c>
       <c r="G17">
-        <v>1.942763750988329</v>
+        <v>1.942763750988218</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302601</v>
+        <v>32.35481734302608</v>
       </c>
       <c r="C18">
-        <v>24.43910093995105</v>
+        <v>24.43910093995103</v>
       </c>
       <c r="D18">
-        <v>11.13348911491295</v>
+        <v>11.13348911491286</v>
       </c>
       <c r="E18">
-        <v>38.23872953362995</v>
+        <v>38.23872953363003</v>
       </c>
       <c r="F18">
-        <v>77.04173180354539</v>
+        <v>77.0417318035453</v>
       </c>
       <c r="G18">
-        <v>1.948377868415464</v>
+        <v>1.948377868415481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197619</v>
+        <v>32.17939591197628</v>
       </c>
       <c r="C19">
-        <v>24.30475469442354</v>
+        <v>24.30475469442353</v>
       </c>
       <c r="D19">
-        <v>11.0831011899563</v>
+        <v>11.08310118995634</v>
       </c>
       <c r="E19">
-        <v>38.01699054411646</v>
+        <v>38.01699054411648</v>
       </c>
       <c r="F19">
-        <v>76.63917250456595</v>
+        <v>76.63917250456609</v>
       </c>
       <c r="G19">
-        <v>1.950266731702557</v>
+        <v>1.950266731702673</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280251</v>
+        <v>32.96854963280287</v>
       </c>
       <c r="C20">
-        <v>24.90967278290244</v>
+        <v>24.90967278290259</v>
       </c>
       <c r="D20">
-        <v>11.31053303980031</v>
+        <v>11.31053303980038</v>
       </c>
       <c r="E20">
-        <v>39.0169369706662</v>
+        <v>39.01693697066646</v>
       </c>
       <c r="F20">
-        <v>78.45164968891373</v>
+        <v>78.45164968891439</v>
       </c>
       <c r="G20">
-        <v>1.941718685536918</v>
+        <v>1.941718685536793</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.62747179442948</v>
+        <v>35.62747179442938</v>
       </c>
       <c r="C21">
-        <v>26.95891802727058</v>
+        <v>26.95891802727065</v>
       </c>
       <c r="D21">
-        <v>12.09047941382329</v>
+        <v>12.09047941382318</v>
       </c>
       <c r="E21">
-        <v>42.43589318647886</v>
+        <v>42.4358931864789</v>
       </c>
       <c r="F21">
-        <v>84.58409143282374</v>
+        <v>84.5840914328231</v>
       </c>
       <c r="G21">
-        <v>1.911943352712942</v>
+        <v>1.911943352712803</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083126</v>
+        <v>37.38893267083112</v>
       </c>
       <c r="C22">
-        <v>28.32698059617303</v>
+        <v>28.32698059617301</v>
       </c>
       <c r="D22">
-        <v>12.61797675994069</v>
+        <v>12.61797675994059</v>
       </c>
       <c r="E22">
-        <v>44.74911616656801</v>
+        <v>44.74911616656789</v>
       </c>
       <c r="F22">
-        <v>88.66440359819461</v>
+        <v>88.66440359819391</v>
       </c>
       <c r="G22">
-        <v>1.891371730508888</v>
+        <v>1.891371730509006</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.4452367082963</v>
+        <v>36.44523670829638</v>
       </c>
       <c r="C23">
-        <v>27.59292849431204</v>
+        <v>27.59292849431245</v>
       </c>
       <c r="D23">
-        <v>12.33434832085116</v>
+        <v>12.33434832085117</v>
       </c>
       <c r="E23">
-        <v>43.50458967050601</v>
+        <v>43.50458967050596</v>
       </c>
       <c r="F23">
-        <v>86.47688851490052</v>
+        <v>86.47688851490105</v>
       </c>
       <c r="G23">
-        <v>1.902478127042033</v>
+        <v>1.902478127042176</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524119</v>
+        <v>32.92522304524108</v>
       </c>
       <c r="C24">
-        <v>24.87642435347647</v>
+        <v>24.87642435347658</v>
       </c>
       <c r="D24">
-        <v>11.29799643622042</v>
+        <v>11.29799643622025</v>
       </c>
       <c r="E24">
-        <v>38.9618731367764</v>
+        <v>38.96187313677633</v>
       </c>
       <c r="F24">
-        <v>78.35204073660901</v>
+        <v>78.3520407366083</v>
       </c>
       <c r="G24">
-        <v>1.942191390765368</v>
+        <v>1.942191390765355</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092007</v>
+        <v>29.12536297092033</v>
       </c>
       <c r="C25">
-        <v>21.9760943554472</v>
+        <v>21.97609435544706</v>
       </c>
       <c r="D25">
-        <v>10.22222143521092</v>
+        <v>10.22222143521094</v>
       </c>
       <c r="E25">
-        <v>34.20189188957365</v>
+        <v>34.20189188957372</v>
       </c>
       <c r="F25">
-        <v>69.7998356797699</v>
+        <v>69.79983567977028</v>
       </c>
       <c r="G25">
-        <v>1.982132171959331</v>
+        <v>1.982132171958937</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718539</v>
+        <v>25.09703835460632</v>
       </c>
       <c r="C2">
-        <v>19.79684940052504</v>
+        <v>20.34457718097449</v>
       </c>
       <c r="D2">
-        <v>9.442240316330917</v>
+        <v>3.256916493061351</v>
       </c>
       <c r="E2">
-        <v>30.67466357065958</v>
+        <v>29.94318199716722</v>
       </c>
       <c r="F2">
-        <v>63.54804827132331</v>
+        <v>22.88231735487936</v>
       </c>
       <c r="G2">
-        <v>2.0104398682729</v>
+        <v>31.9857944657687</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3.595090717041712</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.826643705189863</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.38257868810889</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,40 +465,43 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420731</v>
+        <v>23.44037060755681</v>
       </c>
       <c r="C3">
-        <v>18.26974872213664</v>
+        <v>19.01244184219233</v>
       </c>
       <c r="D3">
-        <v>8.91411623822815</v>
+        <v>3.238608711798094</v>
       </c>
       <c r="E3">
-        <v>28.22440394926874</v>
+        <v>27.96966651360496</v>
       </c>
       <c r="F3">
-        <v>59.22243557171277</v>
+        <v>21.81932269912853</v>
       </c>
       <c r="G3">
-        <v>2.029395341367025</v>
+        <v>30.25526731914831</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>3.285551972856177</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.636311993851956</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.4078316464304</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -509,40 +515,43 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93078980953399</v>
+        <v>22.36475999134314</v>
       </c>
       <c r="C4">
-        <v>17.30170589585205</v>
+        <v>18.14868424621398</v>
       </c>
       <c r="D4">
-        <v>8.588640760384006</v>
+        <v>3.226650033764871</v>
       </c>
       <c r="E4">
-        <v>26.67941584961204</v>
+        <v>26.69359321050832</v>
       </c>
       <c r="F4">
-        <v>56.51277687824836</v>
+        <v>21.16699812314214</v>
       </c>
       <c r="G4">
-        <v>2.041032923588919</v>
+        <v>29.18497104870739</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>3.089952386807184</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.527406413215061</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.44280991433582</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -556,40 +565,43 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482668</v>
+        <v>21.91167502323856</v>
       </c>
       <c r="C5">
-        <v>16.89888094117238</v>
+        <v>17.78512890841431</v>
       </c>
       <c r="D5">
-        <v>8.45556233350997</v>
+        <v>3.221601125125949</v>
       </c>
       <c r="E5">
-        <v>26.0382890583654</v>
+        <v>26.15731293373871</v>
       </c>
       <c r="F5">
-        <v>55.39410197988818</v>
+        <v>20.90156385787707</v>
       </c>
       <c r="G5">
-        <v>2.0457887700457</v>
+        <v>28.74733997123269</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>3.008804726189135</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.484982209435623</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.46161856841449</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -603,40 +615,43 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782447</v>
+        <v>21.83554680979005</v>
       </c>
       <c r="C6">
-        <v>16.8314700790715</v>
+        <v>17.72406116072703</v>
       </c>
       <c r="D6">
-        <v>8.433434851819753</v>
+        <v>3.220752298085092</v>
       </c>
       <c r="E6">
-        <v>25.93109875840161</v>
+        <v>26.06727895313499</v>
       </c>
       <c r="F6">
-        <v>55.20745322129681</v>
+        <v>20.85752210515435</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
+        <v>28.67459801585307</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.99524200038953</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.478054376997786</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.46500694907239</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -650,40 +665,43 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425729</v>
+        <v>22.3587094058925</v>
       </c>
       <c r="C7">
-        <v>17.2963078689928</v>
+        <v>18.14382809604593</v>
       </c>
       <c r="D7">
-        <v>8.586847963810564</v>
+        <v>3.22658264694329</v>
       </c>
       <c r="E7">
-        <v>26.67081769861648</v>
+        <v>26.68642673509998</v>
       </c>
       <c r="F7">
-        <v>56.49774957047116</v>
+        <v>21.16341636066593</v>
       </c>
       <c r="G7">
-        <v>2.041096991607814</v>
+        <v>29.17907429254616</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>3.08886388729853</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.526826411419101</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.44304557986732</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -697,40 +715,43 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.5564379132614</v>
+        <v>24.53789224471706</v>
       </c>
       <c r="C8">
-        <v>19.27615912934614</v>
+        <v>19.89473562398932</v>
       </c>
       <c r="D8">
-        <v>9.260289089134476</v>
+        <v>3.250755654125689</v>
       </c>
       <c r="E8">
-        <v>29.83734108505753</v>
+        <v>29.27600187156317</v>
       </c>
       <c r="F8">
-        <v>62.06700749867041</v>
+        <v>22.51589094607733</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
+        <v>31.39097016296273</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>3.489483529931533</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.759339665456533</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.38703715021005</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -744,40 +765,43 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.4137096865615</v>
+        <v>28.35186414356699</v>
       </c>
       <c r="C9">
-        <v>22.95616959896658</v>
+        <v>22.96743012778047</v>
       </c>
       <c r="D9">
-        <v>10.58149212437352</v>
+        <v>3.292277094527144</v>
       </c>
       <c r="E9">
-        <v>35.80129715655014</v>
+        <v>33.84901422894479</v>
       </c>
       <c r="F9">
-        <v>72.63218803581482</v>
+        <v>25.16000261213185</v>
       </c>
       <c r="G9">
-        <v>1.968923078333999</v>
+        <v>35.6512576612008</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>4.233339730280886</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.28025617375507</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.44714190048514</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -791,40 +815,43 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283827</v>
+        <v>30.87152664672094</v>
       </c>
       <c r="C10">
-        <v>25.60710150872044</v>
+        <v>24.95319420236088</v>
       </c>
       <c r="D10">
-        <v>11.5744224058135</v>
+        <v>3.356618153387374</v>
       </c>
       <c r="E10">
-        <v>40.1748490172908</v>
+        <v>36.02948667031383</v>
       </c>
       <c r="F10">
-        <v>80.54051721636861</v>
+        <v>26.82482322773726</v>
       </c>
       <c r="G10">
-        <v>1.931726294619009</v>
+        <v>38.2560950477108</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>4.715839863095707</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.60390845687684</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.44557716714615</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -838,40 +865,43 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916211</v>
+        <v>31.88981052527685</v>
       </c>
       <c r="C11">
-        <v>26.8248421478018</v>
+        <v>25.33437077529264</v>
       </c>
       <c r="D11">
-        <v>12.03904925477316</v>
+        <v>3.746802016271704</v>
       </c>
       <c r="E11">
-        <v>42.21059482593157</v>
+        <v>29.51772418503302</v>
       </c>
       <c r="F11">
-        <v>84.1834696523631</v>
+        <v>25.33217661157738</v>
       </c>
       <c r="G11">
-        <v>1.913929765371355</v>
+        <v>35.4651073883489</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>5.02979180152991</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.888245507499564</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.0078975655774</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -885,40 +915,43 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343351</v>
+        <v>32.24315554862397</v>
       </c>
       <c r="C12">
-        <v>27.29052468993842</v>
+        <v>25.25677332204729</v>
       </c>
       <c r="D12">
-        <v>12.21789564228066</v>
+        <v>4.1009493093553</v>
       </c>
       <c r="E12">
-        <v>42.9941599014295</v>
+        <v>23.66167189386465</v>
       </c>
       <c r="F12">
-        <v>85.57443696643968</v>
+        <v>23.70072239388859</v>
       </c>
       <c r="G12">
-        <v>1.907007552749055</v>
+        <v>32.53780009353301</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.743300604138669</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.204087797426718</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.792174245106523</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -932,40 +965,43 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411559</v>
+        <v>32.11880055635184</v>
       </c>
       <c r="C13">
-        <v>27.18997185068516</v>
+        <v>24.82079504961458</v>
       </c>
       <c r="D13">
-        <v>12.17922750502244</v>
+        <v>4.438850431706441</v>
       </c>
       <c r="E13">
-        <v>42.82471849117048</v>
+        <v>17.88552468053319</v>
       </c>
       <c r="F13">
-        <v>85.27421405460503</v>
+        <v>21.80955641832541</v>
       </c>
       <c r="G13">
-        <v>1.908507665484936</v>
+        <v>29.22140648844968</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.670476718896073</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.492959907930295</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.684601947464991</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -979,40 +1015,43 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.50359968010177</v>
+        <v>31.81564446389167</v>
       </c>
       <c r="C14">
-        <v>26.8630426863445</v>
+        <v>24.34939166932349</v>
       </c>
       <c r="D14">
-        <v>12.05369738572318</v>
+        <v>4.669126737831677</v>
       </c>
       <c r="E14">
-        <v>42.27476186777427</v>
+        <v>13.99216193476585</v>
       </c>
       <c r="F14">
-        <v>84.29762506640677</v>
+        <v>20.34472391562454</v>
       </c>
       <c r="G14">
-        <v>1.913364344850266</v>
+        <v>26.67600951845493</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.41299849926423</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.982689293514213</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.986287241427837</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1026,40 +1065,43 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407762</v>
+        <v>31.63771381202893</v>
       </c>
       <c r="C15">
-        <v>26.66348472232203</v>
+        <v>24.15526300413777</v>
       </c>
       <c r="D15">
-        <v>11.97722265277063</v>
+        <v>4.717446154945213</v>
       </c>
       <c r="E15">
-        <v>41.93976813747307</v>
+        <v>13.06492348169354</v>
       </c>
       <c r="F15">
-        <v>83.70118603006286</v>
+        <v>19.92953109308296</v>
       </c>
       <c r="G15">
-        <v>1.916313299921048</v>
+        <v>25.96274323596182</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.582678591472758</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.854617528057052</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>7.8461114016283</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1073,40 +1115,43 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453319</v>
+        <v>30.629395569307</v>
       </c>
       <c r="C16">
-        <v>25.52797788720417</v>
+        <v>23.40139339081595</v>
       </c>
       <c r="D16">
-        <v>11.54439831699562</v>
+        <v>4.618537742669315</v>
       </c>
       <c r="E16">
-        <v>40.04320168908152</v>
+        <v>12.83533761943203</v>
       </c>
       <c r="F16">
-        <v>80.30360017115569</v>
+        <v>19.46795634787076</v>
       </c>
       <c r="G16">
-        <v>1.932867294210602</v>
+        <v>25.24394199131528</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.283823204834468</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.841075559681389</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.093966636608263</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1120,40 +1165,43 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570705</v>
+        <v>30.00676511390768</v>
       </c>
       <c r="C17">
-        <v>24.83613507090027</v>
+        <v>23.07296721234827</v>
       </c>
       <c r="D17">
-        <v>11.28281053043266</v>
+        <v>4.415809250879967</v>
       </c>
       <c r="E17">
-        <v>38.89516505701497</v>
+        <v>14.74638761048396</v>
       </c>
       <c r="F17">
-        <v>78.23133573472921</v>
+        <v>19.93304125661172</v>
       </c>
       <c r="G17">
-        <v>1.942763750988218</v>
+        <v>26.12933050045496</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.606083638714226</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.106485770173501</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.634739994084343</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1167,40 +1215,43 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302608</v>
+        <v>29.66220706518938</v>
       </c>
       <c r="C18">
-        <v>24.43910093995103</v>
+        <v>23.08810240252694</v>
       </c>
       <c r="D18">
-        <v>11.13348911491286</v>
+        <v>4.111944657598617</v>
       </c>
       <c r="E18">
-        <v>38.23872953363003</v>
+        <v>19.11068570180034</v>
       </c>
       <c r="F18">
-        <v>77.0417318035453</v>
+        <v>21.24055357348675</v>
       </c>
       <c r="G18">
-        <v>1.948377868415481</v>
+        <v>28.49038982662054</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.623916112666137</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.638652163665419</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.513125510743548</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1214,40 +1265,43 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197628</v>
+        <v>29.57738784404856</v>
       </c>
       <c r="C19">
-        <v>24.30475469442353</v>
+        <v>23.38479406038057</v>
       </c>
       <c r="D19">
-        <v>11.08310118995634</v>
+        <v>3.769634517804396</v>
       </c>
       <c r="E19">
-        <v>38.01699054411648</v>
+        <v>25.27637941184491</v>
       </c>
       <c r="F19">
-        <v>76.63917250456609</v>
+        <v>23.10431173563382</v>
       </c>
       <c r="G19">
-        <v>1.950266731702673</v>
+        <v>31.81822060738086</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.742700942549884</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.346734362794038</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.6454611424501</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1261,40 +1315,43 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280287</v>
+        <v>30.22772543526278</v>
       </c>
       <c r="C20">
-        <v>24.90967278290259</v>
+        <v>24.44313044267467</v>
       </c>
       <c r="D20">
-        <v>11.31053303980038</v>
+        <v>3.341351980458814</v>
       </c>
       <c r="E20">
-        <v>39.01693697066646</v>
+        <v>35.4286402408185</v>
       </c>
       <c r="F20">
-        <v>78.45164968891439</v>
+        <v>26.37548755248248</v>
       </c>
       <c r="G20">
-        <v>1.941718685536793</v>
+        <v>37.55180922748339</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>4.587836909872584</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.51129414093993</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.42931672018553</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1308,40 +1365,43 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.62747179442938</v>
+        <v>32.0900919111083</v>
       </c>
       <c r="C21">
-        <v>26.95891802727065</v>
+        <v>25.98821067844236</v>
       </c>
       <c r="D21">
-        <v>12.09047941382318</v>
+        <v>3.331472572562832</v>
       </c>
       <c r="E21">
-        <v>42.4358931864789</v>
+        <v>38.38212853461187</v>
       </c>
       <c r="F21">
-        <v>84.5840914328231</v>
+        <v>28.05373080040202</v>
       </c>
       <c r="G21">
-        <v>1.911943352712803</v>
+        <v>40.25227777744853</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>5.01776559119018</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.93005843281387</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.73698605367121</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1355,40 +1415,43 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083112</v>
+        <v>33.25522987451089</v>
       </c>
       <c r="C22">
-        <v>28.32698059617301</v>
+        <v>26.93149019893336</v>
       </c>
       <c r="D22">
-        <v>12.61797675994059</v>
+        <v>3.343312342543743</v>
       </c>
       <c r="E22">
-        <v>44.74911616656789</v>
+        <v>39.8055828142779</v>
       </c>
       <c r="F22">
-        <v>88.66440359819391</v>
+        <v>29.01129639132077</v>
       </c>
       <c r="G22">
-        <v>1.891371730509006</v>
+        <v>41.78232383652254</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>5.273958164191376</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.16027336193374</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.87971353528034</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1402,40 +1465,43 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829638</v>
+        <v>32.63768297247393</v>
       </c>
       <c r="C23">
-        <v>27.59292849431245</v>
+        <v>26.43142936554</v>
       </c>
       <c r="D23">
-        <v>12.33434832085117</v>
+        <v>3.3370608997126</v>
       </c>
       <c r="E23">
-        <v>43.50458967050596</v>
+        <v>39.05048716797728</v>
       </c>
       <c r="F23">
-        <v>86.47688851490105</v>
+        <v>28.50059825009035</v>
       </c>
       <c r="G23">
-        <v>1.902478127042176</v>
+        <v>40.95891857236105</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>5.137462771915303</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.0366331472039</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.80082368064497</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1449,40 +1515,43 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524108</v>
+        <v>30.20334007044616</v>
       </c>
       <c r="C24">
-        <v>24.87642435347658</v>
+        <v>24.46248537645034</v>
       </c>
       <c r="D24">
-        <v>11.29799643622025</v>
+        <v>3.311907401058376</v>
       </c>
       <c r="E24">
-        <v>38.96187313677633</v>
+        <v>36.08779440998175</v>
       </c>
       <c r="F24">
-        <v>78.3520407366083</v>
+        <v>26.55819922399895</v>
       </c>
       <c r="G24">
-        <v>1.942191390765355</v>
+        <v>37.88048097787322</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>4.614808551451458</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.58504292760889</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.55975710032087</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1496,40 +1565,43 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092033</v>
+        <v>27.36864641100482</v>
       </c>
       <c r="C25">
-        <v>21.97609435544706</v>
+        <v>22.17437379896721</v>
       </c>
       <c r="D25">
-        <v>10.22222143521094</v>
+        <v>3.281698456767105</v>
       </c>
       <c r="E25">
-        <v>34.20189188957372</v>
+        <v>32.66514866645217</v>
       </c>
       <c r="F25">
-        <v>69.79983567977028</v>
+        <v>24.44688846950158</v>
       </c>
       <c r="G25">
-        <v>1.982132171958937</v>
+        <v>34.50881742531911</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>4.036249746741522</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.13213547738503</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.41051113838102</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,6 +1613,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.09703835460632</v>
+        <v>24.99405215824329</v>
       </c>
       <c r="C2">
-        <v>20.34457718097449</v>
+        <v>21.09912284439812</v>
       </c>
       <c r="D2">
-        <v>3.256916493061351</v>
+        <v>3.476319422390679</v>
       </c>
       <c r="E2">
-        <v>29.94318199716722</v>
+        <v>29.78852962320879</v>
       </c>
       <c r="F2">
-        <v>22.88231735487936</v>
+        <v>21.76308316133039</v>
       </c>
       <c r="G2">
-        <v>31.9857944657687</v>
+        <v>29.47254141850919</v>
       </c>
       <c r="H2">
-        <v>3.595090717041712</v>
+        <v>3.506430795089002</v>
       </c>
       <c r="J2">
-        <v>9.826643705189863</v>
+        <v>10.12085419075947</v>
       </c>
       <c r="K2">
-        <v>12.38257868810889</v>
+        <v>11.65253770190066</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.29651387564137</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.246564708412413</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,43 +477,49 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.44037060755681</v>
+        <v>23.36529039408845</v>
       </c>
       <c r="C3">
-        <v>19.01244184219233</v>
+        <v>19.65088434186615</v>
       </c>
       <c r="D3">
-        <v>3.238608711798094</v>
+        <v>3.412050734427358</v>
       </c>
       <c r="E3">
-        <v>27.96966651360496</v>
+        <v>27.84928447218498</v>
       </c>
       <c r="F3">
-        <v>21.81932269912853</v>
+        <v>20.88091362085586</v>
       </c>
       <c r="G3">
-        <v>30.25526731914831</v>
+        <v>28.01127977582228</v>
       </c>
       <c r="H3">
-        <v>3.285551972856177</v>
+        <v>3.216876882849755</v>
       </c>
       <c r="J3">
-        <v>9.636311993851956</v>
+        <v>9.969674206161249</v>
       </c>
       <c r="K3">
-        <v>12.4078316464304</v>
+        <v>11.79721047757512</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.50381803439483</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.141060782955145</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -521,43 +533,49 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.36475999134314</v>
+        <v>22.30695717681751</v>
       </c>
       <c r="C4">
-        <v>18.14868424621398</v>
+        <v>18.71069754495632</v>
       </c>
       <c r="D4">
-        <v>3.226650033764871</v>
+        <v>3.37158559489295</v>
       </c>
       <c r="E4">
-        <v>26.69359321050832</v>
+        <v>26.59441830511671</v>
       </c>
       <c r="F4">
-        <v>21.16699812314214</v>
+        <v>20.34000214293949</v>
       </c>
       <c r="G4">
-        <v>29.18497104870739</v>
+        <v>27.11305268221831</v>
       </c>
       <c r="H4">
-        <v>3.089952386807184</v>
+        <v>3.033659250507765</v>
       </c>
       <c r="J4">
-        <v>9.527406413215061</v>
+        <v>9.879815111300086</v>
       </c>
       <c r="K4">
-        <v>12.44280991433582</v>
+        <v>11.89951305981107</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.63515404308888</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.122166824250913</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -571,43 +589,49 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.91167502323856</v>
+        <v>21.86098141999014</v>
       </c>
       <c r="C5">
-        <v>17.78512890841431</v>
+        <v>18.31470029464685</v>
       </c>
       <c r="D5">
-        <v>3.221601125125949</v>
+        <v>3.354860767919774</v>
       </c>
       <c r="E5">
-        <v>26.15731293373871</v>
+        <v>26.06685571807286</v>
       </c>
       <c r="F5">
-        <v>20.90156385787707</v>
+        <v>20.11995477176235</v>
       </c>
       <c r="G5">
-        <v>28.74733997123269</v>
+        <v>26.74707575847257</v>
       </c>
       <c r="H5">
-        <v>3.008804726189135</v>
+        <v>2.95759342559927</v>
       </c>
       <c r="J5">
-        <v>9.484982209435623</v>
+        <v>9.843922437118453</v>
       </c>
       <c r="K5">
-        <v>12.46161856841449</v>
+        <v>11.94432737345651</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.68970915128414</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.125667158559951</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -621,43 +645,49 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.83554680979005</v>
+        <v>21.78603882150345</v>
       </c>
       <c r="C6">
-        <v>17.72406116072703</v>
+        <v>18.24816715925488</v>
       </c>
       <c r="D6">
-        <v>3.220752298085092</v>
+        <v>3.352069965948957</v>
       </c>
       <c r="E6">
-        <v>26.06727895313499</v>
+        <v>25.97827488960061</v>
       </c>
       <c r="F6">
-        <v>20.85752210515435</v>
+        <v>20.08344491617172</v>
       </c>
       <c r="G6">
-        <v>28.67459801585307</v>
+        <v>26.68631910849744</v>
       </c>
       <c r="H6">
-        <v>2.99524200038953</v>
+        <v>2.944876939848342</v>
       </c>
       <c r="J6">
-        <v>9.478054376997786</v>
+        <v>9.838005704130302</v>
       </c>
       <c r="K6">
-        <v>12.46500694907239</v>
+        <v>11.95195018267592</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.69883095370016</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.126910591460845</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -671,43 +701,49 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.3587094058925</v>
+        <v>22.30046521734271</v>
       </c>
       <c r="C7">
-        <v>18.14382809604593</v>
+        <v>18.69417648100581</v>
       </c>
       <c r="D7">
-        <v>3.22658264694329</v>
+        <v>3.37507327049944</v>
       </c>
       <c r="E7">
-        <v>26.68642673509998</v>
+        <v>26.58637078859206</v>
       </c>
       <c r="F7">
-        <v>21.16341636066593</v>
+        <v>20.30379584276406</v>
       </c>
       <c r="G7">
-        <v>29.17907429254616</v>
+        <v>27.1848542350893</v>
       </c>
       <c r="H7">
-        <v>3.08886388729853</v>
+        <v>3.032068388241111</v>
       </c>
       <c r="J7">
-        <v>9.526826411419101</v>
+        <v>9.817838911762596</v>
       </c>
       <c r="K7">
-        <v>12.44304557986732</v>
+        <v>11.88394958831535</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.62324614694513</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.109714514774725</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -721,43 +757,49 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.53789224471706</v>
+        <v>24.44285856174644</v>
       </c>
       <c r="C8">
-        <v>19.89473562398932</v>
+        <v>20.57583658503031</v>
       </c>
       <c r="D8">
-        <v>3.250755654125689</v>
+        <v>3.467011208710128</v>
       </c>
       <c r="E8">
-        <v>29.27600187156317</v>
+        <v>29.13008624771604</v>
       </c>
       <c r="F8">
-        <v>22.51589094607733</v>
+        <v>21.35424280513161</v>
       </c>
       <c r="G8">
-        <v>31.39097016296273</v>
+        <v>29.20902679824723</v>
       </c>
       <c r="H8">
-        <v>3.489483529931533</v>
+        <v>3.405923799394335</v>
       </c>
       <c r="J8">
-        <v>9.759339665456533</v>
+        <v>9.868681767175836</v>
       </c>
       <c r="K8">
-        <v>12.38703715021005</v>
+        <v>11.64609044848103</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.3283904049972</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.15513357764619</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -771,43 +813,49 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.35186414356699</v>
+        <v>28.18635585337329</v>
       </c>
       <c r="C9">
-        <v>22.96743012778047</v>
+        <v>23.90535308881965</v>
       </c>
       <c r="D9">
-        <v>3.292277094527144</v>
+        <v>3.624863456378448</v>
       </c>
       <c r="E9">
-        <v>33.84901422894479</v>
+        <v>33.61654023088492</v>
       </c>
       <c r="F9">
-        <v>25.16000261213185</v>
+        <v>23.53634008964011</v>
       </c>
       <c r="G9">
-        <v>35.6512576612008</v>
+        <v>32.87412509674532</v>
       </c>
       <c r="H9">
-        <v>4.233339730280886</v>
+        <v>4.099833524803573</v>
       </c>
       <c r="J9">
-        <v>10.28025617375507</v>
+        <v>10.21715209058423</v>
       </c>
       <c r="K9">
-        <v>12.44714190048514</v>
+        <v>11.35791143666554</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.8276338845318</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.659609236374727</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -821,43 +869,49 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.87152664672094</v>
+        <v>30.65163011133617</v>
       </c>
       <c r="C10">
-        <v>24.95319420236088</v>
+        <v>25.98430809215801</v>
       </c>
       <c r="D10">
-        <v>3.356618153387374</v>
+        <v>3.794598958328205</v>
       </c>
       <c r="E10">
-        <v>36.02948667031383</v>
+        <v>35.72748683348493</v>
       </c>
       <c r="F10">
-        <v>26.82482322773726</v>
+        <v>24.74990281888769</v>
       </c>
       <c r="G10">
-        <v>38.2560950477108</v>
+        <v>35.49246985701664</v>
       </c>
       <c r="H10">
-        <v>4.715839863095707</v>
+        <v>4.544206359937443</v>
       </c>
       <c r="J10">
-        <v>10.60390845687684</v>
+        <v>10.08395684182708</v>
       </c>
       <c r="K10">
-        <v>12.44557716714615</v>
+        <v>11.01830255980537</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.3435069827455</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.185174171769177</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -871,43 +925,49 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.88981052527685</v>
+        <v>31.65617377234031</v>
       </c>
       <c r="C11">
-        <v>25.33437077529264</v>
+        <v>26.14199345512388</v>
       </c>
       <c r="D11">
-        <v>3.746802016271704</v>
+        <v>4.259565487303627</v>
       </c>
       <c r="E11">
-        <v>29.51772418503302</v>
+        <v>29.17512477972202</v>
       </c>
       <c r="F11">
-        <v>25.33217661157738</v>
+        <v>23.10047891162695</v>
       </c>
       <c r="G11">
-        <v>35.4651073883489</v>
+        <v>33.85114451639873</v>
       </c>
       <c r="H11">
-        <v>5.02979180152991</v>
+        <v>4.864617700604563</v>
       </c>
       <c r="J11">
-        <v>9.888245507499564</v>
+        <v>8.821263897988496</v>
       </c>
       <c r="K11">
-        <v>11.0078975655774</v>
+        <v>9.653618055117029</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.419782822907461</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.527904134042839</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -921,43 +981,49 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.24315554862397</v>
+        <v>32.00942142421647</v>
       </c>
       <c r="C12">
-        <v>25.25677332204729</v>
+        <v>25.88579706362951</v>
       </c>
       <c r="D12">
-        <v>4.1009493093553</v>
+        <v>4.628814791639351</v>
       </c>
       <c r="E12">
-        <v>23.66167189386465</v>
+        <v>23.2845090217978</v>
       </c>
       <c r="F12">
-        <v>23.70072239388859</v>
+        <v>21.52613452701698</v>
       </c>
       <c r="G12">
-        <v>32.53780009353301</v>
+        <v>31.69336288429594</v>
       </c>
       <c r="H12">
-        <v>5.743300604138669</v>
+        <v>5.603840294406418</v>
       </c>
       <c r="J12">
-        <v>9.204087797426718</v>
+        <v>8.011258623318623</v>
       </c>
       <c r="K12">
-        <v>9.792174245106523</v>
+        <v>8.658940504412509</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.841092324782435</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.852776154004466</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -971,43 +1037,49 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.11880055635184</v>
+        <v>31.89606010153628</v>
       </c>
       <c r="C13">
-        <v>24.82079504961458</v>
+        <v>25.3112328025859</v>
       </c>
       <c r="D13">
-        <v>4.438850431706441</v>
+        <v>4.924015937010952</v>
       </c>
       <c r="E13">
-        <v>17.88552468053319</v>
+        <v>17.46778135406685</v>
       </c>
       <c r="F13">
-        <v>21.80955641832541</v>
+        <v>19.93342365866673</v>
       </c>
       <c r="G13">
-        <v>29.22140648844968</v>
+        <v>28.7393993043226</v>
       </c>
       <c r="H13">
-        <v>6.670476718896073</v>
+        <v>6.56063449735216</v>
       </c>
       <c r="J13">
-        <v>8.492959907930295</v>
+        <v>7.587093594176439</v>
       </c>
       <c r="K13">
-        <v>8.684601947464991</v>
+        <v>7.932794198974189</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.48225348984931</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.119372781344535</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1021,43 +1093,49 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.81564446389167</v>
+        <v>31.60513536393078</v>
       </c>
       <c r="C14">
-        <v>24.34939166932349</v>
+        <v>24.75791001921159</v>
       </c>
       <c r="D14">
-        <v>4.669126737831677</v>
+        <v>5.09722284249771</v>
       </c>
       <c r="E14">
-        <v>13.99216193476585</v>
+        <v>13.53172094347274</v>
       </c>
       <c r="F14">
-        <v>20.34472391562454</v>
+        <v>18.7882789212273</v>
       </c>
       <c r="G14">
-        <v>26.67600951845493</v>
+        <v>26.27242090475923</v>
       </c>
       <c r="H14">
-        <v>7.41299849926423</v>
+        <v>7.322265063634191</v>
       </c>
       <c r="J14">
-        <v>7.982689293514213</v>
+        <v>7.440161413372954</v>
       </c>
       <c r="K14">
-        <v>7.986287241427837</v>
+        <v>7.558801886335993</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.321823753902885</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.572821560477333</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1071,43 +1149,49 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.63771381202893</v>
+        <v>31.4326404520524</v>
       </c>
       <c r="C15">
-        <v>24.15526300413777</v>
+        <v>24.55042308736788</v>
       </c>
       <c r="D15">
-        <v>4.717446154945213</v>
+        <v>5.121192800376228</v>
       </c>
       <c r="E15">
-        <v>13.06492348169354</v>
+        <v>12.59564622733438</v>
       </c>
       <c r="F15">
-        <v>19.92953109308296</v>
+        <v>18.49876148031202</v>
       </c>
       <c r="G15">
-        <v>25.96274323596182</v>
+        <v>25.49939184007026</v>
       </c>
       <c r="H15">
-        <v>7.582678591472758</v>
+        <v>7.497129121506483</v>
       </c>
       <c r="J15">
-        <v>7.854617528057052</v>
+        <v>7.466172323137004</v>
       </c>
       <c r="K15">
-        <v>7.8461114016283</v>
+        <v>7.516556434267904</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.312487007522515</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.411530065956305</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1121,43 +1205,49 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.629395569307</v>
+        <v>30.44837054382156</v>
       </c>
       <c r="C16">
-        <v>23.40139339081595</v>
+        <v>23.85181557112426</v>
       </c>
       <c r="D16">
-        <v>4.618537742669315</v>
+        <v>4.939432153813054</v>
       </c>
       <c r="E16">
-        <v>12.83533761943203</v>
+        <v>12.41859558901376</v>
       </c>
       <c r="F16">
-        <v>19.46795634787076</v>
+        <v>18.43322571385587</v>
       </c>
       <c r="G16">
-        <v>25.24394199131528</v>
+        <v>24.1284798668761</v>
       </c>
       <c r="H16">
-        <v>7.283823204834468</v>
+        <v>7.208065673685073</v>
       </c>
       <c r="J16">
-        <v>7.841075559681389</v>
+        <v>8.009415374601513</v>
       </c>
       <c r="K16">
-        <v>8.093966636608263</v>
+        <v>7.924344986375119</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.574251548722829</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.111157897651532</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1171,43 +1261,49 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.00676511390768</v>
+        <v>29.8373465667087</v>
       </c>
       <c r="C17">
-        <v>23.07296721234827</v>
+        <v>23.59899719851295</v>
       </c>
       <c r="D17">
-        <v>4.415809250879967</v>
+        <v>4.714362281524214</v>
       </c>
       <c r="E17">
-        <v>14.74638761048396</v>
+        <v>14.391823200254</v>
       </c>
       <c r="F17">
-        <v>19.93304125661172</v>
+        <v>18.9834783468287</v>
       </c>
       <c r="G17">
-        <v>26.12933050045496</v>
+        <v>24.59545866314917</v>
       </c>
       <c r="H17">
-        <v>6.606083638714226</v>
+        <v>6.528861853812766</v>
       </c>
       <c r="J17">
-        <v>8.106485770173501</v>
+        <v>8.459094840054835</v>
       </c>
       <c r="K17">
-        <v>8.634739994084343</v>
+        <v>8.418292220843906</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.876919800284078</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.219456941531096</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1221,43 +1317,49 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.66220706518938</v>
+        <v>29.49517562036867</v>
       </c>
       <c r="C18">
-        <v>23.08810240252694</v>
+        <v>23.73485408816439</v>
       </c>
       <c r="D18">
-        <v>4.111944657598617</v>
+        <v>4.422974682667138</v>
       </c>
       <c r="E18">
-        <v>19.11068570180034</v>
+        <v>18.81243991636342</v>
       </c>
       <c r="F18">
-        <v>21.24055357348675</v>
+        <v>20.1758216751636</v>
       </c>
       <c r="G18">
-        <v>28.49038982662054</v>
+        <v>26.52375710353814</v>
       </c>
       <c r="H18">
-        <v>5.623916112666137</v>
+        <v>5.533053683914842</v>
       </c>
       <c r="J18">
-        <v>8.638652163665419</v>
+        <v>8.982651183216593</v>
       </c>
       <c r="K18">
-        <v>9.513125510743548</v>
+        <v>9.101055519834139</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.293039789268549</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.845794644736467</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1271,43 +1373,49 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.57738784404856</v>
+        <v>29.40419007397684</v>
       </c>
       <c r="C19">
-        <v>23.38479406038057</v>
+        <v>24.18571875018334</v>
       </c>
       <c r="D19">
-        <v>3.769634517804396</v>
+        <v>4.108233316301301</v>
       </c>
       <c r="E19">
-        <v>25.27637941184491</v>
+        <v>25.00782172795655</v>
       </c>
       <c r="F19">
-        <v>23.10431173563382</v>
+        <v>21.79963560138999</v>
       </c>
       <c r="G19">
-        <v>31.81822060738086</v>
+        <v>29.38722667307921</v>
       </c>
       <c r="H19">
-        <v>4.742700942549884</v>
+        <v>4.625580028513077</v>
       </c>
       <c r="J19">
-        <v>9.346734362794038</v>
+        <v>9.573207061880087</v>
       </c>
       <c r="K19">
-        <v>10.6454611424501</v>
+        <v>9.939038505772462</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.806315575896312</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.657599095999506</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1321,43 +1429,49 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.22772543526278</v>
+        <v>30.02394672281945</v>
       </c>
       <c r="C20">
-        <v>24.44313044267467</v>
+        <v>25.48105707576319</v>
       </c>
       <c r="D20">
-        <v>3.341351980458814</v>
+        <v>3.737581577553922</v>
       </c>
       <c r="E20">
-        <v>35.4286402408185</v>
+        <v>35.14796301886536</v>
       </c>
       <c r="F20">
-        <v>26.37548755248248</v>
+        <v>24.51708056541044</v>
       </c>
       <c r="G20">
-        <v>37.55180922748339</v>
+        <v>34.56782997600689</v>
       </c>
       <c r="H20">
-        <v>4.587836909872584</v>
+        <v>4.427922653748492</v>
       </c>
       <c r="J20">
-        <v>10.51129414093993</v>
+        <v>10.31474126727914</v>
       </c>
       <c r="K20">
-        <v>12.42931672018553</v>
+        <v>11.15196662296817</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.49966479519909</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.976195996199576</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1371,43 +1485,49 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.0900919111083</v>
+        <v>31.83261964200457</v>
       </c>
       <c r="C21">
-        <v>25.98821067844236</v>
+        <v>26.96521166851932</v>
       </c>
       <c r="D21">
-        <v>3.331472572562832</v>
+        <v>3.884620633001428</v>
       </c>
       <c r="E21">
-        <v>38.38212853461187</v>
+        <v>38.03145583474459</v>
       </c>
       <c r="F21">
-        <v>28.05373080040202</v>
+        <v>25.29896430713513</v>
       </c>
       <c r="G21">
-        <v>40.25227777744853</v>
+        <v>38.33467028178899</v>
       </c>
       <c r="H21">
-        <v>5.01776559119018</v>
+        <v>4.817827298501896</v>
       </c>
       <c r="J21">
-        <v>10.93005843281387</v>
+        <v>9.308386585780438</v>
       </c>
       <c r="K21">
-        <v>12.73698605367121</v>
+        <v>10.82042679557487</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.07779751064493</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.670130517258067</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1421,43 +1541,49 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.25522987451089</v>
+        <v>32.96267321682579</v>
       </c>
       <c r="C22">
-        <v>26.93149019893336</v>
+        <v>27.84841509603214</v>
       </c>
       <c r="D22">
-        <v>3.343312342543743</v>
+        <v>4.00657302250178</v>
       </c>
       <c r="E22">
-        <v>39.8055828142779</v>
+        <v>39.40865032884698</v>
       </c>
       <c r="F22">
-        <v>29.01129639132077</v>
+        <v>25.67244845488737</v>
       </c>
       <c r="G22">
-        <v>41.78232383652254</v>
+        <v>40.65183434039862</v>
       </c>
       <c r="H22">
-        <v>5.273958164191376</v>
+        <v>5.048471759375371</v>
       </c>
       <c r="J22">
-        <v>11.16027336193374</v>
+        <v>8.567229876864664</v>
       </c>
       <c r="K22">
-        <v>12.87971353528034</v>
+        <v>10.53579836482951</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.75945190154253</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.061701273356441</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1471,43 +1597,49 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.63768297247393</v>
+        <v>32.36491009318791</v>
       </c>
       <c r="C23">
-        <v>26.43142936554</v>
+        <v>27.40199333863583</v>
       </c>
       <c r="D23">
-        <v>3.3370608997126</v>
+        <v>3.93048457434175</v>
       </c>
       <c r="E23">
-        <v>39.05048716797728</v>
+        <v>38.68004843970924</v>
       </c>
       <c r="F23">
-        <v>28.50059825009035</v>
+        <v>25.54086660183046</v>
       </c>
       <c r="G23">
-        <v>40.95891857236105</v>
+        <v>39.26661557834086</v>
       </c>
       <c r="H23">
-        <v>5.137462771915303</v>
+        <v>4.926617215803429</v>
       </c>
       <c r="J23">
-        <v>11.0366331472039</v>
+        <v>9.099289309611633</v>
       </c>
       <c r="K23">
-        <v>12.80082368064497</v>
+        <v>10.7280219556531</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.952739747085495</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.885078461203027</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1521,43 +1653,49 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.20334007044616</v>
+        <v>29.99884653660616</v>
       </c>
       <c r="C24">
-        <v>24.46248537645034</v>
+        <v>25.51655442322233</v>
       </c>
       <c r="D24">
-        <v>3.311907401058376</v>
+        <v>3.706861725218292</v>
       </c>
       <c r="E24">
-        <v>36.08779440998175</v>
+        <v>35.80745033145666</v>
       </c>
       <c r="F24">
-        <v>26.55819922399895</v>
+        <v>24.68045123284609</v>
       </c>
       <c r="G24">
-        <v>37.88048097787322</v>
+        <v>34.84149335274225</v>
       </c>
       <c r="H24">
-        <v>4.614808551451458</v>
+        <v>4.454277830922297</v>
       </c>
       <c r="J24">
-        <v>10.58504292760889</v>
+        <v>10.38552589012307</v>
       </c>
       <c r="K24">
-        <v>12.55975710032087</v>
+        <v>11.25548864223618</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.56790281724166</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.06286967249895</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1571,43 +1709,49 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.36864641100482</v>
+        <v>27.22308619688719</v>
       </c>
       <c r="C25">
-        <v>22.17437379896721</v>
+        <v>23.06063514254898</v>
       </c>
       <c r="D25">
-        <v>3.281698456767105</v>
+        <v>3.577688397532745</v>
       </c>
       <c r="E25">
-        <v>32.66514866645217</v>
+        <v>32.45754258497886</v>
       </c>
       <c r="F25">
-        <v>24.44688846950158</v>
+        <v>22.98859393098524</v>
       </c>
       <c r="G25">
-        <v>34.50881742531911</v>
+        <v>31.79148610172821</v>
       </c>
       <c r="H25">
-        <v>4.036249746741522</v>
+        <v>3.916971376973708</v>
       </c>
       <c r="J25">
-        <v>10.13213547738503</v>
+        <v>10.20291944155817</v>
       </c>
       <c r="K25">
-        <v>12.41051113838102</v>
+        <v>11.44398558429085</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.97503245191473</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.504451475285772</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1619,6 +1763,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
